--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -703,7 +703,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -910,7 +910,7 @@
         <v>160.80402010050253</v>
       </c>
       <c r="Q3" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R3" s="2">
         <f>L3/Q3</f>
@@ -918,14 +918,14 @@
       </c>
       <c r="S3" s="2">
         <f>M3/Q3</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" s="2">
         <v>4.9749999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>1/Q3</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:21">
